--- a/data/trans_orig/IP1006-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1006-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{019960E8-6C83-4C13-986F-583866330EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E28C43C-1F30-411E-B534-E60ACDE51250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B9B5459F-43DD-483E-9DD1-C4952F701215}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EBFE4A62-0E4A-4D77-9268-5DD3F65ADAF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="143">
   <si>
     <t>Menores según si padecen cardiopatía congénita en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -103,25 +103,25 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>5,41%</t>
+    <t>5,11%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>2,57%</t>
+    <t>2,93%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>94,59%</t>
+    <t>94,89%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>97,43%</t>
+    <t>97,07%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -148,316 +148,313 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen cardiopatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen cardiopatía congénita en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardiopatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>99,29%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardiopatía congénita en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
     <t>0,27%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,65%</t>
+    <t>0,64%</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -466,13 +463,10 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>99,88%</t>
-  </si>
-  <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>99,35%</t>
+    <t>99,36%</t>
   </si>
 </sst>
 </file>
@@ -884,7 +878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16480D05-62E6-4756-ACD0-DE99E11C2EEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B6BE6-F47C-4B9D-AC96-E3548B1C60BC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1640,10 +1634,10 @@
         <v>57</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -1652,13 +1646,13 @@
         <v>4610</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1673,13 +1667,13 @@
         <v>720600</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>1014</v>
@@ -1688,13 +1682,13 @@
         <v>678511</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>2097</v>
@@ -1703,10 +1697,10 @@
         <v>1399111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>39</v>
@@ -1765,7 +1759,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1785,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD7743B-974E-4A66-8FA9-6B1A8FA0F34E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C222B0-284F-4175-BF75-386B263F3FD0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1802,7 +1796,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2058,13 +2052,13 @@
         <v>1155</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2079,7 +2073,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2088,13 +2082,13 @@
         <v>1155</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,10 +2103,10 @@
         <v>82382</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2127,7 +2121,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -2139,10 +2133,10 @@
         <v>174270</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2216,10 +2210,10 @@
         <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2234,7 +2228,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2243,13 +2237,13 @@
         <v>5412</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,10 +2261,10 @@
         <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H11" s="7">
         <v>649</v>
@@ -2282,7 +2276,7 @@
         <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -2294,13 +2288,13 @@
         <v>936691</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,13 +2362,13 @@
         <v>667</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2389,7 +2383,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2398,13 +2392,13 @@
         <v>667</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,10 +2413,10 @@
         <v>170894</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -2437,7 +2431,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -2449,10 +2443,10 @@
         <v>336234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -2523,13 +2517,13 @@
         <v>5889</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2538,13 +2532,13 @@
         <v>1346</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2553,13 +2547,13 @@
         <v>7234</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2568,13 @@
         <v>742253</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>1016</v>
@@ -2589,10 +2583,10 @@
         <v>705582</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -2604,13 +2598,13 @@
         <v>1447836</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,7 +2660,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2686,7 +2680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24F6A14-48EC-40E0-95B4-D891807142AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF039D2-D62A-472D-991C-CF495E6E9F95}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2703,7 +2697,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2947,13 +2941,13 @@
         <v>634</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2962,13 +2956,13 @@
         <v>1136</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2977,13 +2971,13 @@
         <v>1769</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,10 +2992,10 @@
         <v>67980</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -3013,10 +3007,10 @@
         <v>58242</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -3028,13 +3022,13 @@
         <v>126224</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3096,13 @@
         <v>1366</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3117,13 +3111,13 @@
         <v>1537</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -3138,7 +3132,7 @@
         <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,10 +3147,10 @@
         <v>487369</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -3168,10 +3162,10 @@
         <v>470753</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -3186,7 +3180,7 @@
         <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>44</v>
@@ -3263,7 +3257,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3278,7 +3272,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3293,7 +3287,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,7 +3305,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -3326,7 +3320,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -3341,7 +3335,7 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -3418,7 +3412,7 @@
         <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3430,10 +3424,10 @@
         <v>136</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3442,13 +3436,13 @@
         <v>4672</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,10 +3457,10 @@
         <v>742845</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>44</v>
@@ -3478,13 +3472,13 @@
         <v>701698</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>2119</v>
@@ -3493,10 +3487,10 @@
         <v>1444543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>39</v>
@@ -3555,7 +3549,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1006-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1006-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E28C43C-1F30-411E-B534-E60ACDE51250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DA5190D-57B4-4BCA-B63D-E0C1E33955B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EBFE4A62-0E4A-4D77-9268-5DD3F65ADAF4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5A046C65-3379-44CE-A70D-097E4FA2720A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="149">
   <si>
     <t>Menores según si padecen cardiopatía congénita en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,271 +67,277 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>1,46%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,4%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>97,07%</t>
+    <t>97,61%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
     <t>0,44%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen cardiopatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen cardiopatía congénita en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>98,06%</t>
   </si>
   <si>
     <t>99,8%</t>
@@ -340,133 +346,145 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
     <t>0,19%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
   </si>
   <si>
     <t>Menores según si padecen cardiopatía congénita en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
+    <t>5,1%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>4,19%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
     <t>99,29%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>0,98%</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
+    <t>99,02%</t>
+  </si>
+  <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>99,36%</t>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
   </si>
 </sst>
 </file>
@@ -878,8 +896,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B6BE6-F47C-4B9D-AC96-E3548B1C60BC}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9C09FE-2BE0-47FB-80A8-A979A8ED9F68}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -996,10 +1014,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1325</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1013,79 +1031,83 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1325</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>89542</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7">
+        <v>130</v>
+      </c>
+      <c r="I5" s="7">
+        <v>86845</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>176387</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1094,151 +1116,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>1325</v>
+        <v>2100</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>1325</v>
+        <v>2761</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
-        <v>130</v>
+        <v>627</v>
       </c>
       <c r="D8" s="7">
-        <v>86844</v>
+        <v>415426</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
-        <v>134</v>
+        <v>716</v>
       </c>
       <c r="I8" s="7">
-        <v>89542</v>
+        <v>474891</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>264</v>
+        <v>1343</v>
       </c>
       <c r="N8" s="7">
-        <v>176387</v>
+        <v>890317</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,153 +1271,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2100</v>
+        <v>524</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="7">
-        <v>661</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="7">
-        <v>4</v>
-      </c>
       <c r="N10" s="7">
-        <v>2761</v>
+        <v>524</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>716</v>
+        <v>253</v>
       </c>
       <c r="D11" s="7">
-        <v>474891</v>
+        <v>173542</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
-        <v>627</v>
+        <v>236</v>
       </c>
       <c r="I11" s="7">
-        <v>415426</v>
+        <v>158138</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>1343</v>
+        <v>489</v>
       </c>
       <c r="N11" s="7">
-        <v>890317</v>
+        <v>331681</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,153 +1426,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>2510</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>524</v>
+        <v>2100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>524</v>
+        <v>4610</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>236</v>
+        <v>1014</v>
       </c>
       <c r="D14" s="7">
-        <v>158138</v>
+        <v>678511</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
-        <v>253</v>
+        <v>1082</v>
       </c>
       <c r="I14" s="7">
-        <v>173542</v>
+        <v>719874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
-        <v>489</v>
+        <v>2096</v>
       </c>
       <c r="N14" s="7">
-        <v>331681</v>
+        <v>1398385</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,216 +1581,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2100</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2510</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" s="7">
-        <v>7</v>
-      </c>
-      <c r="N16" s="7">
-        <v>4610</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1083</v>
-      </c>
-      <c r="D17" s="7">
-        <v>720600</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1014</v>
-      </c>
-      <c r="I17" s="7">
-        <v>678511</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2097</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1399111</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="A16" t="s">
         <v>66</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1779,8 +1647,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C222B0-284F-4175-BF75-386B263F3FD0}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6B8785-B3A0-4775-B3A7-E8D39BCF2CA5}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1796,7 +1664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1903,90 +1771,94 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1155</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1155</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="I5" s="7">
+        <v>82382</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>174270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,151 +1867,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I6" s="7">
+        <v>83537</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1155</v>
+        <v>1346</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>4066</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>1155</v>
+        <v>5412</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
-        <v>116</v>
+        <v>649</v>
       </c>
       <c r="D8" s="7">
-        <v>82382</v>
+        <v>448354</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
-        <v>133</v>
+        <v>699</v>
       </c>
       <c r="I8" s="7">
-        <v>91889</v>
+        <v>488338</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="M8" s="7">
-        <v>249</v>
+        <v>1348</v>
       </c>
       <c r="N8" s="7">
-        <v>174270</v>
+        <v>936691</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,153 +2022,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="D9" s="7">
-        <v>83537</v>
+        <v>449700</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>250</v>
+        <v>1356</v>
       </c>
       <c r="N9" s="7">
-        <v>175425</v>
+        <v>942103</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>4066</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1346</v>
+        <v>667</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>5412</v>
+        <v>667</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>699</v>
+        <v>234</v>
       </c>
       <c r="D11" s="7">
-        <v>488338</v>
+        <v>165340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>649</v>
+        <v>242</v>
       </c>
       <c r="I11" s="7">
-        <v>448354</v>
+        <v>170894</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
-        <v>1348</v>
+        <v>476</v>
       </c>
       <c r="N11" s="7">
-        <v>936691</v>
+        <v>336234</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,153 +2177,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="I12" s="7">
-        <v>449700</v>
+        <v>171561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>1356</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>942103</v>
+        <v>336901</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>667</v>
+        <v>1346</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>5889</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>667</v>
+        <v>7234</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>242</v>
+        <v>1016</v>
       </c>
       <c r="D14" s="7">
-        <v>170894</v>
+        <v>705582</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H14" s="7">
-        <v>234</v>
+        <v>1057</v>
       </c>
       <c r="I14" s="7">
-        <v>165340</v>
+        <v>741612</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
-        <v>476</v>
+        <v>2073</v>
       </c>
       <c r="N14" s="7">
-        <v>336234</v>
+        <v>1447195</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,216 +2332,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>165340</v>
+        <v>747501</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2083</v>
       </c>
       <c r="N15" s="7">
-        <v>336901</v>
+        <v>1454429</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7">
-        <v>5889</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1346</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" s="7">
-        <v>10</v>
-      </c>
-      <c r="N16" s="7">
-        <v>7234</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1058</v>
-      </c>
-      <c r="D17" s="7">
-        <v>742253</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I17" s="7">
-        <v>705582</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2074</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1447836</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D18" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>68</v>
+      <c r="A16" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2680,8 +2398,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF039D2-D62A-472D-991C-CF495E6E9F95}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FB80A4-4F7F-4FE6-9541-A66577E3F1CD}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2697,7 +2415,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2798,88 +2516,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1136</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>634</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1769</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="D5" s="7">
+        <v>58242</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="I5" s="7">
+        <v>67980</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>185</v>
+      </c>
+      <c r="N5" s="7">
+        <v>126224</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,147 +2618,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>634</v>
+        <v>1537</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1136</v>
+        <v>1366</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>1769</v>
+        <v>2902</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
-        <v>98</v>
+        <v>712</v>
       </c>
       <c r="D8" s="7">
-        <v>67980</v>
+        <v>470753</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
-        <v>87</v>
+        <v>693</v>
       </c>
       <c r="I8" s="7">
-        <v>58242</v>
+        <v>487369</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M8" s="7">
-        <v>185</v>
+        <v>1405</v>
       </c>
       <c r="N8" s="7">
-        <v>126224</v>
+        <v>958123</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,153 +2773,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1366</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1537</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>2902</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>693</v>
+        <v>258</v>
       </c>
       <c r="D11" s="7">
-        <v>487369</v>
+        <v>172703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>712</v>
+        <v>271</v>
       </c>
       <c r="I11" s="7">
-        <v>470753</v>
+        <v>187495</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>1405</v>
+        <v>529</v>
       </c>
       <c r="N11" s="7">
-        <v>958123</v>
+        <v>360197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,153 +2928,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>2673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1999</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>4672</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>271</v>
+        <v>1057</v>
       </c>
       <c r="D14" s="7">
-        <v>187495</v>
+        <v>701698</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
-        <v>258</v>
+        <v>1062</v>
       </c>
       <c r="I14" s="7">
-        <v>172703</v>
+        <v>742845</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
-        <v>529</v>
+        <v>2119</v>
       </c>
       <c r="N14" s="7">
-        <v>360197</v>
+        <v>1444543</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,216 +3083,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1999</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2673</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16" s="7">
-        <v>7</v>
-      </c>
-      <c r="N16" s="7">
-        <v>4672</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1062</v>
-      </c>
-      <c r="D17" s="7">
-        <v>742845</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1057</v>
-      </c>
-      <c r="I17" s="7">
-        <v>701698</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2119</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1444543</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>68</v>
+      <c r="A16" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
